--- a/biology/Médecine/François_Desport/François_Desport.xlsx
+++ b/biology/Médecine/François_Desport/François_Desport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Desport</t>
+          <t>François_Desport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Desport, mort vers 1760, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Desport</t>
+          <t>François_Desport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Gabriel Michaud écrit qu'il « a été l'un des plus grands chirurgiens militaires dont s'honore la France »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Gabriel Michaud écrit qu'il « a été l'un des plus grands chirurgiens militaires dont s'honore la France ».
 En service aux armées d'Italie (1734) puis de Corse (1738), il est surtout connu pour son Traité des plaies d'armes à feu, publié en 1749 à Paris qui fut réputé.
-Membre de l'Académie de chirurgie[2], en 1751, il devient premier chirurgien de la Reine[3].
+Membre de l'Académie de chirurgie, en 1751, il devient premier chirurgien de la Reine.
 </t>
         </is>
       </c>
